--- a/data/trans_orig/Q02G_FES-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q02G_FES-Dificultad-trans_orig.xlsx
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.455149611227414</v>
+        <v>2.470155276057406</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.034938999219801</v>
+        <v>1.873512659633888</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.367224515470812</v>
+        <v>3.386858952363165</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.402320713958031</v>
+        <v>3.609571014239077</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.376442029506581</v>
+        <v>3.352024984774804</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.252873598628307</v>
+        <v>3.393780608329142</v>
       </c>
     </row>
     <row r="6">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.418262833883063</v>
+        <v>5.500071819748453</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.660348659336924</v>
+        <v>8.193535363394551</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.483820282706126</v>
+        <v>5.480832532333443</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.162385860401407</v>
+        <v>6.358465221587521</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.140937152514768</v>
+        <v>5.100007286591834</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.771556776949049</v>
+        <v>5.960551161214037</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.17517788212625</v>
+        <v>1.199624903069629</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.994116293757441</v>
+        <v>3.080697450819946</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.059073742235364</v>
+        <v>2.15200738455559</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.647876206471468</v>
+        <v>2.676273624668124</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>2.127187812006147</v>
+        <v>2.07450443296015</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.142588946142344</v>
+        <v>3.155310573902941</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.590423219048648</v>
+        <v>4.857172794438969</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.271266338020816</v>
+        <v>8.510889374396402</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.278728813893457</v>
+        <v>4.409328127592882</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.181329340599692</v>
+        <v>5.141653713206663</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.993685796175666</v>
+        <v>3.931536362553112</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>5.458125224242211</v>
+        <v>5.383956328686355</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.401411218801333</v>
+        <v>2.315792984234015</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.139007053993701</v>
+        <v>2.045637370618939</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.735110784892958</v>
+        <v>2.720538220748581</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.095238394702517</v>
+        <v>2.03433976641625</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.939331961279971</v>
+        <v>2.840556514785608</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.502271431636058</v>
+        <v>2.428029303857528</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.712321195033207</v>
+        <v>6.779355846074848</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.837616331748453</v>
+        <v>4.645345223121682</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.466886735620808</v>
+        <v>5.526107930471224</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.50899971837215</v>
+        <v>7.708866515412153</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.282471637391949</v>
+        <v>5.118467854532835</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.308629443464424</v>
+        <v>6.096974557896489</v>
       </c>
     </row>
     <row r="13">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.019022598243176</v>
+        <v>1.016481600628297</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.015346619575114</v>
+        <v>1.131533444004237</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.044643197946185</v>
+        <v>1.972386720682826</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.43558000569625</v>
+        <v>2.376282359096516</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>2.043550017178565</v>
+        <v>1.981166092953518</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.173813493377276</v>
+        <v>2.277841644659378</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.958830585264619</v>
+        <v>5.186028019383257</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.522965302808477</v>
+        <v>2.545780296609636</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.797609071613309</v>
+        <v>4.761834873987816</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.441737561617209</v>
+        <v>5.235409311142496</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>4.314809131308563</v>
+        <v>4.252639055270876</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>4.32127149459215</v>
+        <v>4.515997996868041</v>
       </c>
     </row>
     <row r="16">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.405346317054975</v>
+        <v>2.412773696564222</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.795268112285422</v>
+        <v>2.752024052531074</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.216906898941773</v>
+        <v>3.151655764888295</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.252274886715525</v>
+        <v>3.358518701654395</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.141238230985063</v>
+        <v>3.129933078074449</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.399239225618509</v>
+        <v>3.385085688581938</v>
       </c>
     </row>
     <row r="18">
@@ -985,22 +985,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.26645007367126</v>
+        <v>4.172734464791337</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.287417829985309</v>
+        <v>5.447516931207236</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.379588560005196</v>
+        <v>4.396543080993222</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.03596582763482</v>
+        <v>5.043968623592161</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.201064865147245</v>
+        <v>4.143249202453424</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.783503206976203</v>
+        <v>4.816247002834982</v>
       </c>
     </row>
     <row r="19">
